--- a/Code/Results/Cases/Case_5_205/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_205/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.027546539507085</v>
+        <v>1.057742643088169</v>
       </c>
       <c r="D2">
-        <v>1.038029746194421</v>
+        <v>1.055265475451534</v>
       </c>
       <c r="E2">
-        <v>1.038234023019694</v>
+        <v>1.063305949821053</v>
       </c>
       <c r="F2">
-        <v>1.045011083396629</v>
+        <v>1.072666294045031</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.053924796525241</v>
+        <v>1.048497942368824</v>
       </c>
       <c r="J2">
-        <v>1.048933435885843</v>
+        <v>1.062737480654799</v>
       </c>
       <c r="K2">
-        <v>1.048983520151904</v>
+        <v>1.058006408157197</v>
       </c>
       <c r="L2">
-        <v>1.04918520626174</v>
+        <v>1.066024946841664</v>
       </c>
       <c r="M2">
-        <v>1.055877033067516</v>
+        <v>1.075360202523923</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -456,37 +456,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.033057313288666</v>
+        <v>1.058886898265979</v>
       </c>
       <c r="D3">
-        <v>1.042080289993617</v>
+        <v>1.056120190283747</v>
       </c>
       <c r="E3">
-        <v>1.042952407172928</v>
+        <v>1.064334219556289</v>
       </c>
       <c r="F3">
-        <v>1.050155560702844</v>
+        <v>1.073797905950379</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.055821731036876</v>
+        <v>1.048832845641868</v>
       </c>
       <c r="J3">
-        <v>1.052685646226886</v>
+        <v>1.063533389887483</v>
       </c>
       <c r="K3">
-        <v>1.052201633898076</v>
+        <v>1.058674424707046</v>
       </c>
       <c r="L3">
-        <v>1.053063688997109</v>
+        <v>1.066867666223849</v>
       </c>
       <c r="M3">
-        <v>1.060184523849511</v>
+        <v>1.076307826669175</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -494,37 +494,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.036541609054722</v>
+        <v>1.059627357309382</v>
       </c>
       <c r="D4">
-        <v>1.044644116870192</v>
+        <v>1.056673222483377</v>
       </c>
       <c r="E4">
-        <v>1.045941306414195</v>
+        <v>1.064999939573588</v>
       </c>
       <c r="F4">
-        <v>1.053415055210898</v>
+        <v>1.074530671708417</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.057012099900299</v>
+        <v>1.049048396441891</v>
       </c>
       <c r="J4">
-        <v>1.055054615527615</v>
+        <v>1.064047873578672</v>
       </c>
       <c r="K4">
-        <v>1.054232006615047</v>
+        <v>1.059106006876108</v>
       </c>
       <c r="L4">
-        <v>1.05551516140928</v>
+        <v>1.067412712781813</v>
       </c>
       <c r="M4">
-        <v>1.062908873215728</v>
+        <v>1.076920948638579</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -532,37 +532,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.037987697569207</v>
+        <v>1.059938658940513</v>
       </c>
       <c r="D5">
-        <v>1.045708788881866</v>
+        <v>1.05690571102451</v>
       </c>
       <c r="E5">
-        <v>1.047183084933274</v>
+        <v>1.065279894779086</v>
       </c>
       <c r="F5">
-        <v>1.054769429175549</v>
+        <v>1.074838855317227</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.057503938179185</v>
+        <v>1.049138737794471</v>
       </c>
       <c r="J5">
-        <v>1.056036942820377</v>
+        <v>1.064264037615964</v>
       </c>
       <c r="K5">
-        <v>1.055073583401436</v>
+        <v>1.059287283906703</v>
       </c>
       <c r="L5">
-        <v>1.056532366049937</v>
+        <v>1.067641790886076</v>
       </c>
       <c r="M5">
-        <v>1.064039719135966</v>
+        <v>1.077178692379643</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -570,37 +570,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.038229427789119</v>
+        <v>1.059990928619758</v>
       </c>
       <c r="D6">
-        <v>1.0458867948099</v>
+        <v>1.056944746507281</v>
       </c>
       <c r="E6">
-        <v>1.047390737084236</v>
+        <v>1.065326905567316</v>
       </c>
       <c r="F6">
-        <v>1.054995920142048</v>
+        <v>1.074890608267277</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.057586024024075</v>
+        <v>1.049153890310421</v>
       </c>
       <c r="J6">
-        <v>1.056201097908984</v>
+        <v>1.064300325191845</v>
       </c>
       <c r="K6">
-        <v>1.055214197176725</v>
+        <v>1.059317711731517</v>
       </c>
       <c r="L6">
-        <v>1.056702388589056</v>
+        <v>1.067680250626315</v>
       </c>
       <c r="M6">
-        <v>1.064228760945364</v>
+        <v>1.077221967948304</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -608,37 +608,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.036561004235686</v>
+        <v>1.059631516886277</v>
       </c>
       <c r="D7">
-        <v>1.044658394115791</v>
+        <v>1.056676329031115</v>
       </c>
       <c r="E7">
-        <v>1.045957956303887</v>
+        <v>1.065003680008629</v>
       </c>
       <c r="F7">
-        <v>1.053433214096275</v>
+        <v>1.074534789166095</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.05701870526852</v>
+        <v>1.049049604672667</v>
       </c>
       <c r="J7">
-        <v>1.055067794145368</v>
+        <v>1.064050762463594</v>
       </c>
       <c r="K7">
-        <v>1.054243298351084</v>
+        <v>1.059108429737676</v>
       </c>
       <c r="L7">
-        <v>1.055528805298161</v>
+        <v>1.067415773968074</v>
       </c>
       <c r="M7">
-        <v>1.062924039744688</v>
+        <v>1.076924392672789</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -646,37 +646,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.029426320011091</v>
+        <v>1.058129339738296</v>
       </c>
       <c r="D8">
-        <v>1.039410801588807</v>
+        <v>1.055554335539</v>
       </c>
       <c r="E8">
-        <v>1.039842301557792</v>
+        <v>1.06365338378799</v>
       </c>
       <c r="F8">
-        <v>1.046764459710106</v>
+        <v>1.073048616527131</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.054573726703661</v>
+        <v>1.04861136348502</v>
       </c>
       <c r="J8">
-        <v>1.050214049316666</v>
+        <v>1.063006570308762</v>
       </c>
       <c r="K8">
-        <v>1.050082133976092</v>
+        <v>1.05823230609975</v>
       </c>
       <c r="L8">
-        <v>1.050508330539009</v>
+        <v>1.066309799527064</v>
       </c>
       <c r="M8">
-        <v>1.057346153265619</v>
+        <v>1.075680467914101</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -684,37 +684,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.016190423895746</v>
+        <v>1.05548265348719</v>
       </c>
       <c r="D9">
-        <v>1.029701208280513</v>
+        <v>1.053577048780785</v>
       </c>
       <c r="E9">
-        <v>1.02854427127673</v>
+        <v>1.061276745052431</v>
       </c>
       <c r="F9">
-        <v>1.034449642281746</v>
+        <v>1.070433891671437</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.049967789735443</v>
+        <v>1.047830284881648</v>
       </c>
       <c r="J9">
-        <v>1.041184131289325</v>
+        <v>1.061162554552437</v>
       </c>
       <c r="K9">
-        <v>1.042330106782919</v>
+        <v>1.056683334283536</v>
       </c>
       <c r="L9">
-        <v>1.041190611526455</v>
+        <v>1.064359013159382</v>
       </c>
       <c r="M9">
-        <v>1.047007474011662</v>
+        <v>1.073488086938377</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -722,37 +722,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.006861056252816</v>
+        <v>1.053718371838701</v>
       </c>
       <c r="D10">
-        <v>1.022879382140785</v>
+        <v>1.052258732058413</v>
       </c>
       <c r="E10">
-        <v>1.02061686505337</v>
+        <v>1.059694159173467</v>
       </c>
       <c r="F10">
-        <v>1.025811540030511</v>
+        <v>1.068693478064748</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.046676509832707</v>
+        <v>1.047303615240334</v>
       </c>
       <c r="J10">
-        <v>1.034805077934111</v>
+        <v>1.059930491954082</v>
       </c>
       <c r="K10">
-        <v>1.036847474807989</v>
+        <v>1.055647228444098</v>
       </c>
       <c r="L10">
-        <v>1.03462359263139</v>
+        <v>1.06305718383358</v>
       </c>
       <c r="M10">
-        <v>1.039729890102945</v>
+        <v>1.072026194208776</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -760,37 +760,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>1.002686772818625</v>
+        <v>1.052954447290713</v>
       </c>
       <c r="D11">
-        <v>1.019833431220637</v>
+        <v>1.051687856299236</v>
       </c>
       <c r="E11">
-        <v>1.01707937257803</v>
+        <v>1.059009314651615</v>
       </c>
       <c r="F11">
-        <v>1.021957407292192</v>
+        <v>1.067940503135829</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.045193921796205</v>
+        <v>1.04707414830438</v>
       </c>
       <c r="J11">
-        <v>1.031948204486672</v>
+        <v>1.059396345447072</v>
       </c>
       <c r="K11">
-        <v>1.034390766152268</v>
+        <v>1.05519776031168</v>
       </c>
       <c r="L11">
-        <v>1.031686227926237</v>
+        <v>1.06249316358021</v>
       </c>
       <c r="M11">
-        <v>1.036476787891977</v>
+        <v>1.071393101094777</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -798,37 +798,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>1.001114655866102</v>
+        <v>1.052670693653543</v>
       </c>
       <c r="D12">
-        <v>1.018687328489384</v>
+        <v>1.051475802099836</v>
       </c>
       <c r="E12">
-        <v>1.015748598926614</v>
+        <v>1.058754996417077</v>
       </c>
       <c r="F12">
-        <v>1.020507577250594</v>
+        <v>1.067660909628143</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.044634115269767</v>
+        <v>1.046988701185288</v>
       </c>
       <c r="J12">
-        <v>1.030871916256733</v>
+        <v>1.059197840681059</v>
       </c>
       <c r="K12">
-        <v>1.033465057436321</v>
+        <v>1.055030683194493</v>
       </c>
       <c r="L12">
-        <v>1.030580174860877</v>
+        <v>1.062283612872215</v>
       </c>
       <c r="M12">
-        <v>1.035252155732958</v>
+        <v>1.071157928985122</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -836,37 +836,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>1.001452881320677</v>
+        <v>1.052731559702915</v>
       </c>
       <c r="D13">
-        <v>1.018933851458341</v>
+        <v>1.051521288697489</v>
       </c>
       <c r="E13">
-        <v>1.016034831838988</v>
+        <v>1.058809545674456</v>
       </c>
       <c r="F13">
-        <v>1.020819415196547</v>
+        <v>1.067720879099392</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.044754615910257</v>
+        <v>1.047007039519242</v>
       </c>
       <c r="J13">
-        <v>1.031103483010825</v>
+        <v>1.059240425114224</v>
       </c>
       <c r="K13">
-        <v>1.033664234239328</v>
+        <v>1.055066527448698</v>
       </c>
       <c r="L13">
-        <v>1.03081812027297</v>
+        <v>1.062328564411329</v>
       </c>
       <c r="M13">
-        <v>1.035515597116355</v>
+        <v>1.071208374804028</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -874,37 +874,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>1.0025572702276</v>
+        <v>1.052930992093672</v>
       </c>
       <c r="D14">
-        <v>1.019738999203178</v>
+        <v>1.051670327946397</v>
       </c>
       <c r="E14">
-        <v>1.016969719254365</v>
+        <v>1.058988291333836</v>
       </c>
       <c r="F14">
-        <v>1.021837942784299</v>
+        <v>1.067917389916606</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.045147836706079</v>
+        <v>1.047067089562846</v>
       </c>
       <c r="J14">
-        <v>1.031859551995016</v>
+        <v>1.059379939003179</v>
       </c>
       <c r="K14">
-        <v>1.034314520193194</v>
+        <v>1.055183952209541</v>
       </c>
       <c r="L14">
-        <v>1.031595112356663</v>
+        <v>1.062475843044819</v>
       </c>
       <c r="M14">
-        <v>1.036375897603884</v>
+        <v>1.071373661965924</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -912,37 +912,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>1.003234814862371</v>
+        <v>1.053053869194497</v>
       </c>
       <c r="D15">
-        <v>1.020233101990538</v>
+        <v>1.051762155210719</v>
       </c>
       <c r="E15">
-        <v>1.017543476750201</v>
+        <v>1.059098430837269</v>
       </c>
       <c r="F15">
-        <v>1.022463039383372</v>
+        <v>1.068038479275202</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.045388891238129</v>
+        <v>1.047104060161173</v>
       </c>
       <c r="J15">
-        <v>1.032323359802257</v>
+        <v>1.059465884984527</v>
       </c>
       <c r="K15">
-        <v>1.034713413002188</v>
+        <v>1.05525628495452</v>
       </c>
       <c r="L15">
-        <v>1.032071829174761</v>
+        <v>1.06256657983479</v>
       </c>
       <c r="M15">
-        <v>1.036903768395774</v>
+        <v>1.071475499084662</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -950,37 +950,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.007135138712084</v>
+        <v>1.053769071335271</v>
       </c>
       <c r="D16">
-        <v>1.023079519714551</v>
+        <v>1.05229661843476</v>
       </c>
       <c r="E16">
-        <v>1.020849340823643</v>
+        <v>1.059739618979323</v>
       </c>
       <c r="F16">
-        <v>1.026064833869186</v>
+        <v>1.068743463872749</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.046773654258806</v>
+        <v>1.047318814363389</v>
       </c>
       <c r="J16">
-        <v>1.034992609689353</v>
+        <v>1.059965927648073</v>
       </c>
       <c r="K16">
-        <v>1.037008713315495</v>
+        <v>1.055677040702427</v>
       </c>
       <c r="L16">
-        <v>1.034816485103257</v>
+        <v>1.063094609227936</v>
       </c>
       <c r="M16">
-        <v>1.039943559788671</v>
+        <v>1.072068208700335</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -988,37 +988,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.009544734586932</v>
+        <v>1.054217703524464</v>
       </c>
       <c r="D17">
-        <v>1.024839764518607</v>
+        <v>1.0526318633887</v>
       </c>
       <c r="E17">
-        <v>1.022894240562627</v>
+        <v>1.060141933005299</v>
       </c>
       <c r="F17">
-        <v>1.028292908158303</v>
+        <v>1.069185851848549</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.047626576233937</v>
+        <v>1.047453144875125</v>
       </c>
       <c r="J17">
-        <v>1.036641000317499</v>
+        <v>1.060279415395715</v>
       </c>
       <c r="K17">
-        <v>1.038425842815381</v>
+        <v>1.055940747902787</v>
       </c>
       <c r="L17">
-        <v>1.036512415258069</v>
+        <v>1.063425742233347</v>
       </c>
       <c r="M17">
-        <v>1.0418224023639</v>
+        <v>1.072439976941479</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1026,37 +1026,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.010937322934806</v>
+        <v>1.054479385201978</v>
       </c>
       <c r="D18">
-        <v>1.025857666106879</v>
+        <v>1.052827402641444</v>
       </c>
       <c r="E18">
-        <v>1.024076951660771</v>
+        <v>1.060376637063758</v>
       </c>
       <c r="F18">
-        <v>1.02958161025711</v>
+        <v>1.069443950640682</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.048118563184014</v>
+        <v>1.047531361028708</v>
       </c>
       <c r="J18">
-        <v>1.037593405434373</v>
+        <v>1.060462204305982</v>
       </c>
       <c r="K18">
-        <v>1.039244506042336</v>
+        <v>1.056094484034281</v>
       </c>
       <c r="L18">
-        <v>1.037492636236605</v>
+        <v>1.063618855710694</v>
       </c>
       <c r="M18">
-        <v>1.042908541992773</v>
+        <v>1.072656815005735</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1064,37 +1064,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.011410013454914</v>
+        <v>1.054568612286542</v>
       </c>
       <c r="D19">
-        <v>1.026203273572238</v>
+        <v>1.052894075890942</v>
       </c>
       <c r="E19">
-        <v>1.024478551916477</v>
+        <v>1.060456672065651</v>
       </c>
       <c r="F19">
-        <v>1.030019209279028</v>
+        <v>1.06953196608643</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.048285397603216</v>
+        <v>1.047558007559305</v>
       </c>
       <c r="J19">
-        <v>1.03791663779582</v>
+        <v>1.060524519898648</v>
       </c>
       <c r="K19">
-        <v>1.039522326786871</v>
+        <v>1.056146890553712</v>
       </c>
       <c r="L19">
-        <v>1.037825367881689</v>
+        <v>1.063684697205409</v>
       </c>
       <c r="M19">
-        <v>1.043277260970012</v>
+        <v>1.072730749830939</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1102,37 +1102,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.009287550419621</v>
+        <v>1.054169569326476</v>
       </c>
       <c r="D20">
-        <v>1.024651825203415</v>
+        <v>1.052595895136248</v>
       </c>
       <c r="E20">
-        <v>1.022675888308374</v>
+        <v>1.060098764270213</v>
       </c>
       <c r="F20">
-        <v>1.028054991820189</v>
+        <v>1.069138381461746</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.047535638816985</v>
+        <v>1.047438746609186</v>
       </c>
       <c r="J20">
-        <v>1.036465088284291</v>
+        <v>1.060245787666807</v>
       </c>
       <c r="K20">
-        <v>1.038274623138214</v>
+        <v>1.055912462873945</v>
       </c>
       <c r="L20">
-        <v>1.036331393713514</v>
+        <v>1.063390217984917</v>
       </c>
       <c r="M20">
-        <v>1.041621836425879</v>
+        <v>1.072400090565063</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1140,37 +1140,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>1.002232663237359</v>
+        <v>1.052872264181076</v>
       </c>
       <c r="D21">
-        <v>1.019502316442686</v>
+        <v>1.051626439755824</v>
       </c>
       <c r="E21">
-        <v>1.016694890498596</v>
+        <v>1.058935653442424</v>
       </c>
       <c r="F21">
-        <v>1.021538524775308</v>
+        <v>1.067859519763684</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.045032298428568</v>
+        <v>1.047049412200044</v>
       </c>
       <c r="J21">
-        <v>1.031637333398969</v>
+        <v>1.059338858376438</v>
       </c>
       <c r="K21">
-        <v>1.034123397339795</v>
+        <v>1.055149376987477</v>
       </c>
       <c r="L21">
-        <v>1.031366728766101</v>
+        <v>1.062432474499873</v>
       </c>
       <c r="M21">
-        <v>1.036123018411214</v>
+        <v>1.071324989383371</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1178,37 +1178,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.997671217056998</v>
+        <v>1.052056607653305</v>
       </c>
       <c r="D22">
-        <v>1.016179073975134</v>
+        <v>1.051016872655342</v>
       </c>
       <c r="E22">
-        <v>1.012836670355203</v>
+        <v>1.058204726759069</v>
       </c>
       <c r="F22">
-        <v>1.017335231788523</v>
+        <v>1.067055997467425</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.043405389613741</v>
+        <v>1.04680339042755</v>
       </c>
       <c r="J22">
-        <v>1.02851396402213</v>
+        <v>1.058768063064962</v>
       </c>
       <c r="K22">
-        <v>1.03143669240811</v>
+        <v>1.05466887331453</v>
       </c>
       <c r="L22">
-        <v>1.028158048527377</v>
+        <v>1.061830022480809</v>
       </c>
       <c r="M22">
-        <v>1.032570922820662</v>
+        <v>1.070648954321431</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1216,37 +1216,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>1.000101739678796</v>
+        <v>1.052489001999542</v>
       </c>
       <c r="D23">
-        <v>1.01794920663499</v>
+        <v>1.051340018787317</v>
       </c>
       <c r="E23">
-        <v>1.014891618939854</v>
+        <v>1.058592170155005</v>
       </c>
       <c r="F23">
-        <v>1.019573943727413</v>
+        <v>1.067481908016286</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.044273035064411</v>
+        <v>1.046933928054762</v>
       </c>
       <c r="J23">
-        <v>1.030178377556442</v>
+        <v>1.059070706935463</v>
       </c>
       <c r="K23">
-        <v>1.032868501605964</v>
+        <v>1.054923665880581</v>
       </c>
       <c r="L23">
-        <v>1.029867614540806</v>
+        <v>1.062149420453981</v>
       </c>
       <c r="M23">
-        <v>1.034463289460666</v>
+        <v>1.071007340706317</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1254,37 +1254,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.009403800601058</v>
+        <v>1.054191319091735</v>
       </c>
       <c r="D24">
-        <v>1.02473677408096</v>
+        <v>1.052612147651829</v>
       </c>
       <c r="E24">
-        <v>1.022774583257131</v>
+        <v>1.060118270236234</v>
       </c>
       <c r="F24">
-        <v>1.028162529560373</v>
+        <v>1.069159831096326</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.047576746507544</v>
+        <v>1.047445252987638</v>
       </c>
       <c r="J24">
-        <v>1.036544603333553</v>
+        <v>1.060260982785035</v>
       </c>
       <c r="K24">
-        <v>1.038342977234533</v>
+        <v>1.055925243907414</v>
       </c>
       <c r="L24">
-        <v>1.036413217262517</v>
+        <v>1.063406269958622</v>
       </c>
       <c r="M24">
-        <v>1.041712493621286</v>
+        <v>1.072418113526351</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1292,37 +1292,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.019696678523079</v>
+        <v>1.056166850383011</v>
       </c>
       <c r="D25">
-        <v>1.032269903466808</v>
+        <v>1.054088247130167</v>
       </c>
       <c r="E25">
-        <v>1.031531279326464</v>
+        <v>1.061890837888072</v>
       </c>
       <c r="F25">
-        <v>1.037704951087411</v>
+        <v>1.071109376884251</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.051195819898573</v>
+        <v>1.048033260820295</v>
       </c>
       <c r="J25">
-        <v>1.043578879051172</v>
+        <v>1.061639754651755</v>
       </c>
       <c r="K25">
-        <v>1.044387104097127</v>
+        <v>1.057084389469653</v>
       </c>
       <c r="L25">
-        <v>1.043659065869395</v>
+        <v>1.064863567092966</v>
       </c>
       <c r="M25">
-        <v>1.049744842790382</v>
+        <v>1.07405492244365</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_205/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_205/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.057742643088169</v>
+        <v>1.027546539507086</v>
       </c>
       <c r="D2">
-        <v>1.055265475451534</v>
+        <v>1.038029746194421</v>
       </c>
       <c r="E2">
-        <v>1.063305949821053</v>
+        <v>1.038234023019694</v>
       </c>
       <c r="F2">
-        <v>1.072666294045031</v>
+        <v>1.045011083396629</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.048497942368824</v>
+        <v>1.053924796525241</v>
       </c>
       <c r="J2">
-        <v>1.062737480654799</v>
+        <v>1.048933435885844</v>
       </c>
       <c r="K2">
-        <v>1.058006408157197</v>
+        <v>1.048983520151905</v>
       </c>
       <c r="L2">
-        <v>1.066024946841664</v>
+        <v>1.04918520626174</v>
       </c>
       <c r="M2">
-        <v>1.075360202523923</v>
+        <v>1.055877033067517</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -456,37 +456,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.058886898265979</v>
+        <v>1.033057313288666</v>
       </c>
       <c r="D3">
-        <v>1.056120190283747</v>
+        <v>1.042080289993618</v>
       </c>
       <c r="E3">
-        <v>1.064334219556289</v>
+        <v>1.042952407172929</v>
       </c>
       <c r="F3">
-        <v>1.073797905950379</v>
+        <v>1.050155560702845</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.048832845641868</v>
+        <v>1.055821731036876</v>
       </c>
       <c r="J3">
-        <v>1.063533389887483</v>
+        <v>1.052685646226887</v>
       </c>
       <c r="K3">
-        <v>1.058674424707046</v>
+        <v>1.052201633898077</v>
       </c>
       <c r="L3">
-        <v>1.066867666223849</v>
+        <v>1.05306368899711</v>
       </c>
       <c r="M3">
-        <v>1.076307826669175</v>
+        <v>1.060184523849512</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -494,37 +494,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.059627357309382</v>
+        <v>1.03654160905472</v>
       </c>
       <c r="D4">
-        <v>1.056673222483377</v>
+        <v>1.04464411687019</v>
       </c>
       <c r="E4">
-        <v>1.064999939573588</v>
+        <v>1.045941306414193</v>
       </c>
       <c r="F4">
-        <v>1.074530671708417</v>
+        <v>1.053415055210897</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.049048396441891</v>
+        <v>1.057012099900298</v>
       </c>
       <c r="J4">
-        <v>1.064047873578672</v>
+        <v>1.055054615527614</v>
       </c>
       <c r="K4">
-        <v>1.059106006876108</v>
+        <v>1.054232006615045</v>
       </c>
       <c r="L4">
-        <v>1.067412712781813</v>
+        <v>1.055515161409279</v>
       </c>
       <c r="M4">
-        <v>1.076920948638579</v>
+        <v>1.062908873215727</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -532,37 +532,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.059938658940513</v>
+        <v>1.037987697569205</v>
       </c>
       <c r="D5">
-        <v>1.05690571102451</v>
+        <v>1.045708788881865</v>
       </c>
       <c r="E5">
-        <v>1.065279894779086</v>
+        <v>1.047183084933272</v>
       </c>
       <c r="F5">
-        <v>1.074838855317227</v>
+        <v>1.054769429175547</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.049138737794471</v>
+        <v>1.057503938179184</v>
       </c>
       <c r="J5">
-        <v>1.064264037615964</v>
+        <v>1.056036942820375</v>
       </c>
       <c r="K5">
-        <v>1.059287283906703</v>
+        <v>1.055073583401435</v>
       </c>
       <c r="L5">
-        <v>1.067641790886076</v>
+        <v>1.056532366049936</v>
       </c>
       <c r="M5">
-        <v>1.077178692379643</v>
+        <v>1.064039719135964</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -570,37 +570,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.059990928619758</v>
+        <v>1.038229427789118</v>
       </c>
       <c r="D6">
-        <v>1.056944746507281</v>
+        <v>1.045886794809898</v>
       </c>
       <c r="E6">
-        <v>1.065326905567316</v>
+        <v>1.047390737084234</v>
       </c>
       <c r="F6">
-        <v>1.074890608267277</v>
+        <v>1.054995920142046</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.049153890310421</v>
+        <v>1.057586024024074</v>
       </c>
       <c r="J6">
-        <v>1.064300325191845</v>
+        <v>1.056201097908982</v>
       </c>
       <c r="K6">
-        <v>1.059317711731517</v>
+        <v>1.055214197176724</v>
       </c>
       <c r="L6">
-        <v>1.067680250626315</v>
+        <v>1.056702388589055</v>
       </c>
       <c r="M6">
-        <v>1.077221967948304</v>
+        <v>1.064228760945362</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -608,37 +608,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.059631516886277</v>
+        <v>1.036561004235686</v>
       </c>
       <c r="D7">
-        <v>1.056676329031115</v>
+        <v>1.044658394115791</v>
       </c>
       <c r="E7">
-        <v>1.065003680008629</v>
+        <v>1.045957956303887</v>
       </c>
       <c r="F7">
-        <v>1.074534789166095</v>
+        <v>1.053433214096274</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.049049604672667</v>
+        <v>1.05701870526852</v>
       </c>
       <c r="J7">
-        <v>1.064050762463594</v>
+        <v>1.055067794145368</v>
       </c>
       <c r="K7">
-        <v>1.059108429737676</v>
+        <v>1.054243298351083</v>
       </c>
       <c r="L7">
-        <v>1.067415773968074</v>
+        <v>1.055528805298161</v>
       </c>
       <c r="M7">
-        <v>1.076924392672789</v>
+        <v>1.062924039744688</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -646,37 +646,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.058129339738296</v>
+        <v>1.029426320011089</v>
       </c>
       <c r="D8">
-        <v>1.055554335539</v>
+        <v>1.039410801588806</v>
       </c>
       <c r="E8">
-        <v>1.06365338378799</v>
+        <v>1.03984230155779</v>
       </c>
       <c r="F8">
-        <v>1.073048616527131</v>
+        <v>1.046764459710105</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.04861136348502</v>
+        <v>1.054573726703661</v>
       </c>
       <c r="J8">
-        <v>1.063006570308762</v>
+        <v>1.050214049316665</v>
       </c>
       <c r="K8">
-        <v>1.05823230609975</v>
+        <v>1.050082133976091</v>
       </c>
       <c r="L8">
-        <v>1.066309799527064</v>
+        <v>1.050508330539008</v>
       </c>
       <c r="M8">
-        <v>1.075680467914101</v>
+        <v>1.057346153265618</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -684,37 +684,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.05548265348719</v>
+        <v>1.016190423895745</v>
       </c>
       <c r="D9">
-        <v>1.053577048780785</v>
+        <v>1.029701208280512</v>
       </c>
       <c r="E9">
-        <v>1.061276745052431</v>
+        <v>1.028544271276729</v>
       </c>
       <c r="F9">
-        <v>1.070433891671437</v>
+        <v>1.034449642281744</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.047830284881648</v>
+        <v>1.049967789735442</v>
       </c>
       <c r="J9">
-        <v>1.061162554552437</v>
+        <v>1.041184131289324</v>
       </c>
       <c r="K9">
-        <v>1.056683334283536</v>
+        <v>1.042330106782918</v>
       </c>
       <c r="L9">
-        <v>1.064359013159382</v>
+        <v>1.041190611526454</v>
       </c>
       <c r="M9">
-        <v>1.073488086938377</v>
+        <v>1.047007474011662</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -722,37 +722,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.053718371838701</v>
+        <v>1.006861056252816</v>
       </c>
       <c r="D10">
-        <v>1.052258732058413</v>
+        <v>1.022879382140784</v>
       </c>
       <c r="E10">
-        <v>1.059694159173467</v>
+        <v>1.02061686505337</v>
       </c>
       <c r="F10">
-        <v>1.068693478064748</v>
+        <v>1.025811540030511</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.047303615240334</v>
+        <v>1.046676509832707</v>
       </c>
       <c r="J10">
-        <v>1.059930491954082</v>
+        <v>1.034805077934111</v>
       </c>
       <c r="K10">
-        <v>1.055647228444098</v>
+        <v>1.036847474807989</v>
       </c>
       <c r="L10">
-        <v>1.06305718383358</v>
+        <v>1.03462359263139</v>
       </c>
       <c r="M10">
-        <v>1.072026194208776</v>
+        <v>1.039729890102945</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -760,37 +760,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.052954447290713</v>
+        <v>1.002686772818625</v>
       </c>
       <c r="D11">
-        <v>1.051687856299236</v>
+        <v>1.019833431220637</v>
       </c>
       <c r="E11">
-        <v>1.059009314651615</v>
+        <v>1.017079372578029</v>
       </c>
       <c r="F11">
-        <v>1.067940503135829</v>
+        <v>1.021957407292192</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.04707414830438</v>
+        <v>1.045193921796205</v>
       </c>
       <c r="J11">
-        <v>1.059396345447072</v>
+        <v>1.031948204486671</v>
       </c>
       <c r="K11">
-        <v>1.05519776031168</v>
+        <v>1.034390766152268</v>
       </c>
       <c r="L11">
-        <v>1.06249316358021</v>
+        <v>1.031686227926236</v>
       </c>
       <c r="M11">
-        <v>1.071393101094777</v>
+        <v>1.036476787891977</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -798,37 +798,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.052670693653543</v>
+        <v>1.001114655866102</v>
       </c>
       <c r="D12">
-        <v>1.051475802099836</v>
+        <v>1.018687328489384</v>
       </c>
       <c r="E12">
-        <v>1.058754996417077</v>
+        <v>1.015748598926613</v>
       </c>
       <c r="F12">
-        <v>1.067660909628143</v>
+        <v>1.020507577250594</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.046988701185288</v>
+        <v>1.044634115269767</v>
       </c>
       <c r="J12">
-        <v>1.059197840681059</v>
+        <v>1.030871916256733</v>
       </c>
       <c r="K12">
-        <v>1.055030683194493</v>
+        <v>1.033465057436321</v>
       </c>
       <c r="L12">
-        <v>1.062283612872215</v>
+        <v>1.030580174860877</v>
       </c>
       <c r="M12">
-        <v>1.071157928985122</v>
+        <v>1.035252155732958</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -836,37 +836,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.052731559702915</v>
+        <v>1.001452881320676</v>
       </c>
       <c r="D13">
-        <v>1.051521288697489</v>
+        <v>1.01893385145834</v>
       </c>
       <c r="E13">
-        <v>1.058809545674456</v>
+        <v>1.016034831838987</v>
       </c>
       <c r="F13">
-        <v>1.067720879099392</v>
+        <v>1.020819415196547</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.047007039519242</v>
+        <v>1.044754615910257</v>
       </c>
       <c r="J13">
-        <v>1.059240425114224</v>
+        <v>1.031103483010825</v>
       </c>
       <c r="K13">
-        <v>1.055066527448698</v>
+        <v>1.033664234239328</v>
       </c>
       <c r="L13">
-        <v>1.062328564411329</v>
+        <v>1.03081812027297</v>
       </c>
       <c r="M13">
-        <v>1.071208374804028</v>
+        <v>1.035515597116355</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -874,37 +874,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.052930992093672</v>
+        <v>1.0025572702276</v>
       </c>
       <c r="D14">
-        <v>1.051670327946397</v>
+        <v>1.019738999203177</v>
       </c>
       <c r="E14">
-        <v>1.058988291333836</v>
+        <v>1.016969719254364</v>
       </c>
       <c r="F14">
-        <v>1.067917389916606</v>
+        <v>1.021837942784299</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.047067089562846</v>
+        <v>1.045147836706079</v>
       </c>
       <c r="J14">
-        <v>1.059379939003179</v>
+        <v>1.031859551995016</v>
       </c>
       <c r="K14">
-        <v>1.055183952209541</v>
+        <v>1.034314520193194</v>
       </c>
       <c r="L14">
-        <v>1.062475843044819</v>
+        <v>1.031595112356662</v>
       </c>
       <c r="M14">
-        <v>1.071373661965924</v>
+        <v>1.036375897603883</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -912,37 +912,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.053053869194497</v>
+        <v>1.003234814862371</v>
       </c>
       <c r="D15">
-        <v>1.051762155210719</v>
+        <v>1.020233101990539</v>
       </c>
       <c r="E15">
-        <v>1.059098430837269</v>
+        <v>1.017543476750201</v>
       </c>
       <c r="F15">
-        <v>1.068038479275202</v>
+        <v>1.022463039383373</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.047104060161173</v>
+        <v>1.045388891238129</v>
       </c>
       <c r="J15">
-        <v>1.059465884984527</v>
+        <v>1.032323359802257</v>
       </c>
       <c r="K15">
-        <v>1.05525628495452</v>
+        <v>1.034713413002189</v>
       </c>
       <c r="L15">
-        <v>1.06256657983479</v>
+        <v>1.032071829174761</v>
       </c>
       <c r="M15">
-        <v>1.071475499084662</v>
+        <v>1.036903768395774</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -950,37 +950,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.053769071335271</v>
+        <v>1.007135138712083</v>
       </c>
       <c r="D16">
-        <v>1.05229661843476</v>
+        <v>1.02307951971455</v>
       </c>
       <c r="E16">
-        <v>1.059739618979323</v>
+        <v>1.020849340823642</v>
       </c>
       <c r="F16">
-        <v>1.068743463872749</v>
+        <v>1.026064833869185</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.047318814363389</v>
+        <v>1.046773654258806</v>
       </c>
       <c r="J16">
-        <v>1.059965927648073</v>
+        <v>1.034992609689352</v>
       </c>
       <c r="K16">
-        <v>1.055677040702427</v>
+        <v>1.037008713315494</v>
       </c>
       <c r="L16">
-        <v>1.063094609227936</v>
+        <v>1.034816485103256</v>
       </c>
       <c r="M16">
-        <v>1.072068208700335</v>
+        <v>1.03994355978867</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -988,37 +988,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.054217703524464</v>
+        <v>1.009544734586932</v>
       </c>
       <c r="D17">
-        <v>1.0526318633887</v>
+        <v>1.024839764518606</v>
       </c>
       <c r="E17">
-        <v>1.060141933005299</v>
+        <v>1.022894240562626</v>
       </c>
       <c r="F17">
-        <v>1.069185851848549</v>
+        <v>1.028292908158302</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.047453144875125</v>
+        <v>1.047626576233937</v>
       </c>
       <c r="J17">
-        <v>1.060279415395715</v>
+        <v>1.036641000317498</v>
       </c>
       <c r="K17">
-        <v>1.055940747902787</v>
+        <v>1.038425842815381</v>
       </c>
       <c r="L17">
-        <v>1.063425742233347</v>
+        <v>1.036512415258069</v>
       </c>
       <c r="M17">
-        <v>1.072439976941479</v>
+        <v>1.0418224023639</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1026,37 +1026,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.054479385201978</v>
+        <v>1.010937322934804</v>
       </c>
       <c r="D18">
-        <v>1.052827402641444</v>
+        <v>1.025857666106877</v>
       </c>
       <c r="E18">
-        <v>1.060376637063758</v>
+        <v>1.024076951660769</v>
       </c>
       <c r="F18">
-        <v>1.069443950640682</v>
+        <v>1.029581610257109</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.047531361028708</v>
+        <v>1.048118563184013</v>
       </c>
       <c r="J18">
-        <v>1.060462204305982</v>
+        <v>1.037593405434372</v>
       </c>
       <c r="K18">
-        <v>1.056094484034281</v>
+        <v>1.039244506042335</v>
       </c>
       <c r="L18">
-        <v>1.063618855710694</v>
+        <v>1.037492636236604</v>
       </c>
       <c r="M18">
-        <v>1.072656815005735</v>
+        <v>1.042908541992771</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1064,37 +1064,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.054568612286542</v>
+        <v>1.011410013454914</v>
       </c>
       <c r="D19">
-        <v>1.052894075890942</v>
+        <v>1.026203273572238</v>
       </c>
       <c r="E19">
-        <v>1.060456672065651</v>
+        <v>1.024478551916476</v>
       </c>
       <c r="F19">
-        <v>1.06953196608643</v>
+        <v>1.030019209279028</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.047558007559305</v>
+        <v>1.048285397603216</v>
       </c>
       <c r="J19">
-        <v>1.060524519898648</v>
+        <v>1.03791663779582</v>
       </c>
       <c r="K19">
-        <v>1.056146890553712</v>
+        <v>1.039522326786871</v>
       </c>
       <c r="L19">
-        <v>1.063684697205409</v>
+        <v>1.037825367881688</v>
       </c>
       <c r="M19">
-        <v>1.072730749830939</v>
+        <v>1.043277260970012</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1102,37 +1102,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.054169569326476</v>
+        <v>1.009287550419621</v>
       </c>
       <c r="D20">
-        <v>1.052595895136248</v>
+        <v>1.024651825203414</v>
       </c>
       <c r="E20">
-        <v>1.060098764270213</v>
+        <v>1.022675888308374</v>
       </c>
       <c r="F20">
-        <v>1.069138381461746</v>
+        <v>1.028054991820189</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.047438746609186</v>
+        <v>1.047535638816985</v>
       </c>
       <c r="J20">
-        <v>1.060245787666807</v>
+        <v>1.03646508828429</v>
       </c>
       <c r="K20">
-        <v>1.055912462873945</v>
+        <v>1.038274623138214</v>
       </c>
       <c r="L20">
-        <v>1.063390217984917</v>
+        <v>1.036331393713513</v>
       </c>
       <c r="M20">
-        <v>1.072400090565063</v>
+        <v>1.041621836425878</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1140,37 +1140,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.052872264181076</v>
+        <v>1.00223266323736</v>
       </c>
       <c r="D21">
-        <v>1.051626439755824</v>
+        <v>1.019502316442687</v>
       </c>
       <c r="E21">
-        <v>1.058935653442424</v>
+        <v>1.016694890498597</v>
       </c>
       <c r="F21">
-        <v>1.067859519763684</v>
+        <v>1.021538524775309</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.047049412200044</v>
+        <v>1.045032298428569</v>
       </c>
       <c r="J21">
-        <v>1.059338858376438</v>
+        <v>1.03163733339897</v>
       </c>
       <c r="K21">
-        <v>1.055149376987477</v>
+        <v>1.034123397339795</v>
       </c>
       <c r="L21">
-        <v>1.062432474499873</v>
+        <v>1.031366728766102</v>
       </c>
       <c r="M21">
-        <v>1.071324989383371</v>
+        <v>1.036123018411215</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1178,37 +1178,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.052056607653305</v>
+        <v>0.9976712170569971</v>
       </c>
       <c r="D22">
-        <v>1.051016872655342</v>
+        <v>1.016179073975134</v>
       </c>
       <c r="E22">
-        <v>1.058204726759069</v>
+        <v>1.012836670355203</v>
       </c>
       <c r="F22">
-        <v>1.067055997467425</v>
+        <v>1.017335231788522</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.04680339042755</v>
+        <v>1.04340538961374</v>
       </c>
       <c r="J22">
-        <v>1.058768063064962</v>
+        <v>1.028513964022129</v>
       </c>
       <c r="K22">
-        <v>1.05466887331453</v>
+        <v>1.031436692408109</v>
       </c>
       <c r="L22">
-        <v>1.061830022480809</v>
+        <v>1.028158048527376</v>
       </c>
       <c r="M22">
-        <v>1.070648954321431</v>
+        <v>1.032570922820661</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1216,37 +1216,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.052489001999542</v>
+        <v>1.000101739678796</v>
       </c>
       <c r="D23">
-        <v>1.051340018787317</v>
+        <v>1.01794920663499</v>
       </c>
       <c r="E23">
-        <v>1.058592170155005</v>
+        <v>1.014891618939854</v>
       </c>
       <c r="F23">
-        <v>1.067481908016286</v>
+        <v>1.019573943727413</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.046933928054762</v>
+        <v>1.044273035064411</v>
       </c>
       <c r="J23">
-        <v>1.059070706935463</v>
+        <v>1.030178377556442</v>
       </c>
       <c r="K23">
-        <v>1.054923665880581</v>
+        <v>1.032868501605964</v>
       </c>
       <c r="L23">
-        <v>1.062149420453981</v>
+        <v>1.029867614540806</v>
       </c>
       <c r="M23">
-        <v>1.071007340706317</v>
+        <v>1.034463289460666</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1254,37 +1254,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.054191319091735</v>
+        <v>1.009403800601057</v>
       </c>
       <c r="D24">
-        <v>1.052612147651829</v>
+        <v>1.024736774080959</v>
       </c>
       <c r="E24">
-        <v>1.060118270236234</v>
+        <v>1.02277458325713</v>
       </c>
       <c r="F24">
-        <v>1.069159831096326</v>
+        <v>1.028162529560372</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.047445252987638</v>
+        <v>1.047576746507543</v>
       </c>
       <c r="J24">
-        <v>1.060260982785035</v>
+        <v>1.036544603333552</v>
       </c>
       <c r="K24">
-        <v>1.055925243907414</v>
+        <v>1.038342977234531</v>
       </c>
       <c r="L24">
-        <v>1.063406269958622</v>
+        <v>1.036413217262516</v>
       </c>
       <c r="M24">
-        <v>1.072418113526351</v>
+        <v>1.041712493621284</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1292,37 +1292,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.056166850383011</v>
+        <v>1.019696678523079</v>
       </c>
       <c r="D25">
-        <v>1.054088247130167</v>
+        <v>1.032269903466808</v>
       </c>
       <c r="E25">
-        <v>1.061890837888072</v>
+        <v>1.031531279326463</v>
       </c>
       <c r="F25">
-        <v>1.071109376884251</v>
+        <v>1.037704951087411</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.048033260820295</v>
+        <v>1.051195819898572</v>
       </c>
       <c r="J25">
-        <v>1.061639754651755</v>
+        <v>1.043578879051172</v>
       </c>
       <c r="K25">
-        <v>1.057084389469653</v>
+        <v>1.044387104097126</v>
       </c>
       <c r="L25">
-        <v>1.064863567092966</v>
+        <v>1.043659065869394</v>
       </c>
       <c r="M25">
-        <v>1.07405492244365</v>
+        <v>1.049744842790382</v>
       </c>
     </row>
   </sheetData>
